--- a/Stuff/diagrams&tables/table_model.xlsx
+++ b/Stuff/diagrams&tables/table_model.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\WineProject\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\WineProject\Stuff\diagrams&amp;tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851044E3-AA97-4CBB-930B-9B7064520534}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C32730F-2D78-4446-843A-1C92C07380B4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{9CF1DE83-ACB3-4D14-928D-F8B5574C6510}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="75">
   <si>
     <t>PK</t>
   </si>
@@ -171,60 +171,9 @@
     <t>FK with reference to Order(orderID)</t>
   </si>
   <si>
-    <t>Drink</t>
-  </si>
-  <si>
-    <t>DrinkID</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>residualSugar</t>
-  </si>
-  <si>
-    <t>bottleSize</t>
-  </si>
-  <si>
-    <t>ProductID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal </t>
-  </si>
-  <si>
-    <t>5,2()</t>
-  </si>
-  <si>
-    <t>GrapeSort</t>
-  </si>
-  <si>
-    <t>grapeSortID</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>percent</t>
-  </si>
-  <si>
     <t>decimal</t>
   </si>
   <si>
-    <t>FK with reference to Drink(DrinkID)</t>
-  </si>
-  <si>
-    <t>accesoryID</t>
-  </si>
-  <si>
-    <t>material</t>
-  </si>
-  <si>
-    <t>FK with reference to Product(productID)</t>
-  </si>
-  <si>
     <t>Order</t>
   </si>
   <si>
@@ -246,12 +195,6 @@
     <t>FK with reference to customer(customerID)</t>
   </si>
   <si>
-    <t>alcoholPercentage</t>
-  </si>
-  <si>
-    <t>Accessory</t>
-  </si>
-  <si>
     <t>table</t>
   </si>
   <si>
@@ -285,9 +228,6 @@
     <t>productType('drink', 'accessory')</t>
   </si>
   <si>
-    <t>category('pack','others')</t>
-  </si>
-  <si>
     <t>payMethod('transfer','cash on delivery','paypal')</t>
   </si>
   <si>
@@ -300,25 +240,22 @@
     <t>7,2()</t>
   </si>
   <si>
-    <t>category('wine', 'sparkling wine')</t>
-  </si>
-  <si>
-    <t>4,2()</t>
-  </si>
-  <si>
-    <t>residualSugar('bone dry', 'dry', 'off-dry', 'medium-sweet', 'sweet')</t>
-  </si>
-  <si>
-    <t>in litre</t>
-  </si>
-  <si>
-    <t>in percent</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>color('white', 'red', 'rosé')</t>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>propertyID</t>
+  </si>
+  <si>
+    <t>PropertyProProduct</t>
+  </si>
+  <si>
+    <t>pppID</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>FK with reference to Property (propertyID)</t>
   </si>
 </sst>
 </file>
@@ -706,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAA5F66-C1C3-4459-98AD-A0EE38B9A547}">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,22 +662,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>21</v>
@@ -913,7 +850,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1079,11 +1016,11 @@
         <v>100</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1194,7 +1131,7 @@
         <v>100</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1202,10 +1139,10 @@
         <v>22</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>41</v>
@@ -1216,13 +1153,13 @@
         <v>23</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1282,7 +1219,7 @@
         <v>41</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1308,16 +1245,17 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
         <v>41</v>
       </c>
@@ -1328,148 +1266,156 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>81</v>
+        <v>24</v>
+      </c>
+      <c r="D41" s="2">
+        <v>50</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="B43" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>54</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="F43" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="G43" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>90</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="F45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="D46" s="2">
+        <v>60</v>
+      </c>
       <c r="E46" s="2" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="F46" s="2"/>
-      <c r="G46" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+      <c r="A48" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>41</v>
@@ -1477,21 +1423,21 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>41</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
@@ -1500,7 +1446,7 @@
         <v>41</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1514,10 +1460,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
@@ -1537,243 +1483,87 @@
         <v>48</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="2">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>63</v>
+      <c r="G57" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
+      <c r="B58" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="B59" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>41</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="2">
-        <v>5</v>
-      </c>
       <c r="E61" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F72" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>38</v>
       </c>
     </row>
